--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pthlh</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.00249684900308</v>
+        <v>0.1759716666666667</v>
       </c>
       <c r="H2">
-        <v>2.00249684900308</v>
+        <v>0.527915</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07241576745089474</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07241576745089476</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.14765269545135</v>
+        <v>0.619011</v>
       </c>
       <c r="N2">
-        <v>6.14765269545135</v>
+        <v>1.857033</v>
       </c>
       <c r="O2">
-        <v>0.806632631817763</v>
+        <v>0.07160816155038593</v>
       </c>
       <c r="P2">
-        <v>0.806632631817763</v>
+        <v>0.07160816155038593</v>
       </c>
       <c r="Q2">
-        <v>12.31065515140662</v>
+        <v>0.108928397355</v>
       </c>
       <c r="R2">
-        <v>12.31065515140662</v>
+        <v>0.980355576195</v>
       </c>
       <c r="S2">
-        <v>0.806632631817763</v>
+        <v>0.00518555997441885</v>
       </c>
       <c r="T2">
-        <v>0.806632631817763</v>
+        <v>0.005185559974418851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.00249684900308</v>
+        <v>0.1759716666666667</v>
       </c>
       <c r="H3">
-        <v>2.00249684900308</v>
+        <v>0.527915</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07241576745089474</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.07241576745089476</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.525744988266589</v>
+        <v>6.475565666666665</v>
       </c>
       <c r="N3">
-        <v>0.525744988266589</v>
+        <v>19.426697</v>
       </c>
       <c r="O3">
-        <v>0.06898292479408552</v>
+        <v>0.7491035739087015</v>
       </c>
       <c r="P3">
-        <v>0.06898292479408552</v>
+        <v>0.7491035739087014</v>
       </c>
       <c r="Q3">
-        <v>1.052802682383006</v>
+        <v>1.139516082972778</v>
       </c>
       <c r="R3">
-        <v>1.052802682383006</v>
+        <v>10.255644746755</v>
       </c>
       <c r="S3">
-        <v>0.06898292479408552</v>
+        <v>0.05424691020480667</v>
       </c>
       <c r="T3">
-        <v>0.06898292479408552</v>
+        <v>0.05424691020480667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.00249684900308</v>
+        <v>0.1759716666666667</v>
       </c>
       <c r="H4">
-        <v>2.00249684900308</v>
+        <v>0.527915</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07241576745089474</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.07241576745089476</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.356657590441784</v>
+        <v>0.527136</v>
       </c>
       <c r="N4">
-        <v>0.356657590441784</v>
+        <v>1.581408</v>
       </c>
       <c r="O4">
-        <v>0.04679699148403443</v>
+        <v>0.0609799177187873</v>
       </c>
       <c r="P4">
-        <v>0.04679699148403443</v>
+        <v>0.0609799177187873</v>
       </c>
       <c r="Q4">
-        <v>0.7142057010327035</v>
+        <v>0.09276100048000001</v>
       </c>
       <c r="R4">
-        <v>0.7142057010327035</v>
+        <v>0.8348490043200001</v>
       </c>
       <c r="S4">
-        <v>0.04679699148403443</v>
+        <v>0.004415907540698397</v>
       </c>
       <c r="T4">
-        <v>0.04679699148403443</v>
+        <v>0.004415907540698398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,743 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1759716666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.527915</v>
+      </c>
+      <c r="I5">
+        <v>0.07241576745089474</v>
+      </c>
+      <c r="J5">
+        <v>0.07241576745089476</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.4118836666666666</v>
+      </c>
+      <c r="N5">
+        <v>1.235651</v>
+      </c>
+      <c r="O5">
+        <v>0.04764734736964606</v>
+      </c>
+      <c r="P5">
+        <v>0.04764734736964606</v>
+      </c>
+      <c r="Q5">
+        <v>0.0724798552961111</v>
+      </c>
+      <c r="R5">
+        <v>0.6523186976649999</v>
+      </c>
+      <c r="S5">
+        <v>0.00345041922677229</v>
+      </c>
+      <c r="T5">
+        <v>0.003450419226772291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1759716666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.527915</v>
+      </c>
+      <c r="I6">
+        <v>0.07241576745089474</v>
+      </c>
+      <c r="J6">
+        <v>0.07241576745089476</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6108233333333334</v>
+      </c>
+      <c r="N6">
+        <v>1.83247</v>
+      </c>
+      <c r="O6">
+        <v>0.07066099945247917</v>
+      </c>
+      <c r="P6">
+        <v>0.07066099945247915</v>
+      </c>
+      <c r="Q6">
+        <v>0.1074876000055556</v>
+      </c>
+      <c r="R6">
+        <v>0.96738840005</v>
+      </c>
+      <c r="S6">
+        <v>0.005116970504198532</v>
+      </c>
+      <c r="T6">
+        <v>0.005116970504198532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.225929666666667</v>
+      </c>
+      <c r="H7">
+        <v>6.677789</v>
+      </c>
+      <c r="I7">
+        <v>0.916013402366182</v>
+      </c>
+      <c r="J7">
+        <v>0.9160134023661821</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.619011</v>
+      </c>
+      <c r="N7">
+        <v>1.857033</v>
+      </c>
+      <c r="O7">
+        <v>0.07160816155038593</v>
+      </c>
+      <c r="P7">
+        <v>0.07160816155038593</v>
+      </c>
+      <c r="Q7">
+        <v>1.377874948893</v>
+      </c>
+      <c r="R7">
+        <v>12.400874540037</v>
+      </c>
+      <c r="S7">
+        <v>0.06559403569895624</v>
+      </c>
+      <c r="T7">
+        <v>0.06559403569895625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.225929666666667</v>
+      </c>
+      <c r="H8">
+        <v>6.677789</v>
+      </c>
+      <c r="I8">
+        <v>0.916013402366182</v>
+      </c>
+      <c r="J8">
+        <v>0.9160134023661821</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.475565666666665</v>
+      </c>
+      <c r="N8">
+        <v>19.426697</v>
+      </c>
+      <c r="O8">
+        <v>0.7491035739087015</v>
+      </c>
+      <c r="P8">
+        <v>0.7491035739087014</v>
+      </c>
+      <c r="Q8">
+        <v>14.41415372588144</v>
+      </c>
+      <c r="R8">
+        <v>129.727383532933</v>
+      </c>
+      <c r="S8">
+        <v>0.6861889134607764</v>
+      </c>
+      <c r="T8">
+        <v>0.6861889134607764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.225929666666667</v>
+      </c>
+      <c r="H9">
+        <v>6.677789</v>
+      </c>
+      <c r="I9">
+        <v>0.916013402366182</v>
+      </c>
+      <c r="J9">
+        <v>0.9160134023661821</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.527136</v>
+      </c>
+      <c r="N9">
+        <v>1.581408</v>
+      </c>
+      <c r="O9">
+        <v>0.0609799177187873</v>
+      </c>
+      <c r="P9">
+        <v>0.0609799177187873</v>
+      </c>
+      <c r="Q9">
+        <v>1.173367660768</v>
+      </c>
+      <c r="R9">
+        <v>10.560308946912</v>
+      </c>
+      <c r="S9">
+        <v>0.05585842190559619</v>
+      </c>
+      <c r="T9">
+        <v>0.05585842190559619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.225929666666667</v>
+      </c>
+      <c r="H10">
+        <v>6.677789</v>
+      </c>
+      <c r="I10">
+        <v>0.916013402366182</v>
+      </c>
+      <c r="J10">
+        <v>0.9160134023661821</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4118836666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.235651</v>
+      </c>
+      <c r="O10">
+        <v>0.04764734736964606</v>
+      </c>
+      <c r="P10">
+        <v>0.04764734736964606</v>
+      </c>
+      <c r="Q10">
+        <v>0.9168240728487775</v>
+      </c>
+      <c r="R10">
+        <v>8.251416655638998</v>
+      </c>
+      <c r="S10">
+        <v>0.04364560877779284</v>
+      </c>
+      <c r="T10">
+        <v>0.04364560877779284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.225929666666667</v>
+      </c>
+      <c r="H11">
+        <v>6.677789</v>
+      </c>
+      <c r="I11">
+        <v>0.916013402366182</v>
+      </c>
+      <c r="J11">
+        <v>0.9160134023661821</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6108233333333334</v>
+      </c>
+      <c r="N11">
+        <v>1.83247</v>
+      </c>
+      <c r="O11">
+        <v>0.07066099945247917</v>
+      </c>
+      <c r="P11">
+        <v>0.07066099945247915</v>
+      </c>
+      <c r="Q11">
+        <v>1.359649778758889</v>
+      </c>
+      <c r="R11">
+        <v>12.23684800883</v>
+      </c>
+      <c r="S11">
+        <v>0.06472642252306036</v>
+      </c>
+      <c r="T11">
+        <v>0.06472642252306036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02811733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.084352</v>
+      </c>
+      <c r="I12">
+        <v>0.01157083018292315</v>
+      </c>
+      <c r="J12">
+        <v>0.01157083018292315</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.619011</v>
+      </c>
+      <c r="N12">
+        <v>1.857033</v>
+      </c>
+      <c r="O12">
+        <v>0.07160816155038593</v>
+      </c>
+      <c r="P12">
+        <v>0.07160816155038593</v>
+      </c>
+      <c r="Q12">
+        <v>0.017404938624</v>
+      </c>
+      <c r="R12">
+        <v>0.156644447616</v>
+      </c>
+      <c r="S12">
+        <v>0.0008285658770108424</v>
+      </c>
+      <c r="T12">
+        <v>0.0008285658770108425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02811733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.084352</v>
+      </c>
+      <c r="I13">
+        <v>0.01157083018292315</v>
+      </c>
+      <c r="J13">
+        <v>0.01157083018292315</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.475565666666665</v>
+      </c>
+      <c r="N13">
+        <v>19.426697</v>
+      </c>
+      <c r="O13">
+        <v>0.7491035739087015</v>
+      </c>
+      <c r="P13">
+        <v>0.7491035739087014</v>
+      </c>
+      <c r="Q13">
+        <v>0.1820756383715555</v>
+      </c>
+      <c r="R13">
+        <v>1.638680745344</v>
+      </c>
+      <c r="S13">
+        <v>0.008667750243118404</v>
+      </c>
+      <c r="T13">
+        <v>0.008667750243118404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.00249684900308</v>
-      </c>
-      <c r="H5">
-        <v>2.00249684900308</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.591323347230153</v>
-      </c>
-      <c r="N5">
-        <v>0.591323347230153</v>
-      </c>
-      <c r="O5">
-        <v>0.07758745190411706</v>
-      </c>
-      <c r="P5">
-        <v>0.07758745190411706</v>
-      </c>
-      <c r="Q5">
-        <v>1.184123139570336</v>
-      </c>
-      <c r="R5">
-        <v>1.184123139570336</v>
-      </c>
-      <c r="S5">
-        <v>0.07758745190411706</v>
-      </c>
-      <c r="T5">
-        <v>0.07758745190411706</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02811733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.084352</v>
+      </c>
+      <c r="I14">
+        <v>0.01157083018292315</v>
+      </c>
+      <c r="J14">
+        <v>0.01157083018292315</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.527136</v>
+      </c>
+      <c r="N14">
+        <v>1.581408</v>
+      </c>
+      <c r="O14">
+        <v>0.0609799177187873</v>
+      </c>
+      <c r="P14">
+        <v>0.0609799177187873</v>
+      </c>
+      <c r="Q14">
+        <v>0.014821658624</v>
+      </c>
+      <c r="R14">
+        <v>0.133394927616</v>
+      </c>
+      <c r="S14">
+        <v>0.0007055882724927142</v>
+      </c>
+      <c r="T14">
+        <v>0.0007055882724927142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02811733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.084352</v>
+      </c>
+      <c r="I15">
+        <v>0.01157083018292315</v>
+      </c>
+      <c r="J15">
+        <v>0.01157083018292315</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4118836666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.235651</v>
+      </c>
+      <c r="O15">
+        <v>0.04764734736964606</v>
+      </c>
+      <c r="P15">
+        <v>0.04764734736964606</v>
+      </c>
+      <c r="Q15">
+        <v>0.01158107035022222</v>
+      </c>
+      <c r="R15">
+        <v>0.104229633152</v>
+      </c>
+      <c r="S15">
+        <v>0.0005513193650809245</v>
+      </c>
+      <c r="T15">
+        <v>0.0005513193650809246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02811733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.084352</v>
+      </c>
+      <c r="I16">
+        <v>0.01157083018292315</v>
+      </c>
+      <c r="J16">
+        <v>0.01157083018292315</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6108233333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.83247</v>
+      </c>
+      <c r="O16">
+        <v>0.07066099945247917</v>
+      </c>
+      <c r="P16">
+        <v>0.07066099945247915</v>
+      </c>
+      <c r="Q16">
+        <v>0.01717472327111111</v>
+      </c>
+      <c r="R16">
+        <v>0.15457250944</v>
+      </c>
+      <c r="S16">
+        <v>0.000817606425220262</v>
+      </c>
+      <c r="T16">
+        <v>0.0008176064252202619</v>
       </c>
     </row>
   </sheetData>
